--- a/MyMonsterts/Assets/ExcelData/MonsterData.xlsx
+++ b/MyMonsterts/Assets/ExcelData/MonsterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SaneHardDisk/Projects/my_monsters/MyMonsterts/Assets/ExcelData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SaneHardDisk/Projects/MyMonster-1/MyMonsterts/Assets/ExcelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0637CC73-8DD9-E64F-BD33-0682D1737A8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289A486-AD1E-384F-A77A-CF2F72F20F82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25200" windowHeight="13540" xr2:uid="{19E6D701-71AB-1F42-93E9-98E381554108}"/>
+    <workbookView xWindow="1280" yWindow="880" windowWidth="25200" windowHeight="13540" xr2:uid="{19E6D701-71AB-1F42-93E9-98E381554108}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterData" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ATK</t>
     <phoneticPr fontId="1"/>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>バンプー３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルガー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムウマージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベトベトン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26865258-6B6F-DE48-858B-D036F6C38C4A}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -761,6 +773,93 @@
         <v>105</v>
       </c>
     </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>95</v>
+      </c>
+      <c r="G11">
+        <v>101</v>
+      </c>
+      <c r="H11">
+        <v>175</v>
+      </c>
+      <c r="I11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>105</v>
+      </c>
+      <c r="G12">
+        <v>101</v>
+      </c>
+      <c r="H12">
+        <v>173</v>
+      </c>
+      <c r="I12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>105</v>
+      </c>
+      <c r="D13">
+        <v>105</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>101</v>
+      </c>
+      <c r="H13">
+        <v>175</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
